--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N2">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q2">
-        <v>10.025162356176</v>
+        <v>0.3564579995375</v>
       </c>
       <c r="R2">
-        <v>60.15097413705601</v>
+        <v>1.42583199815</v>
       </c>
       <c r="S2">
-        <v>0.1015511790371703</v>
+        <v>0.002255688854789439</v>
       </c>
       <c r="T2">
-        <v>0.07285982038608428</v>
+        <v>0.00106473791934033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q3">
-        <v>23.381704899408</v>
+        <v>0.6358599058816666</v>
       </c>
       <c r="R3">
-        <v>210.435344094672</v>
+        <v>3.81515943529</v>
       </c>
       <c r="S3">
-        <v>0.2368480046581279</v>
+        <v>0.004023761859085017</v>
       </c>
       <c r="T3">
-        <v>0.2548966428820675</v>
+        <v>0.002848964621605413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N4">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q4">
-        <v>17.624225725152</v>
+        <v>0.5492240359433332</v>
       </c>
       <c r="R4">
-        <v>158.618031526368</v>
+        <v>3.29534421566</v>
       </c>
       <c r="S4">
-        <v>0.1785268745202745</v>
+        <v>0.003475524573069707</v>
       </c>
       <c r="T4">
-        <v>0.1921312406457905</v>
+        <v>0.002460793381158852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N5">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q5">
-        <v>10.945300852584</v>
+        <v>0.2716482785975</v>
       </c>
       <c r="R5">
-        <v>65.671805115504</v>
+        <v>1.08659311439</v>
       </c>
       <c r="S5">
-        <v>0.1108718409743963</v>
+        <v>0.001719007555589041</v>
       </c>
       <c r="T5">
-        <v>0.07954710615730251</v>
+        <v>0.000811411788546091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N6">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q6">
-        <v>15.190226557776</v>
+        <v>2.006897259266667</v>
       </c>
       <c r="R6">
-        <v>136.712039019984</v>
+        <v>12.0413835556</v>
       </c>
       <c r="S6">
-        <v>0.1538713650690733</v>
+        <v>0.01269977328692002</v>
       </c>
       <c r="T6">
-        <v>0.1655968959856798</v>
+        <v>0.008991885221823752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>0.125615</v>
+      </c>
+      <c r="H7">
+        <v>0.25123</v>
+      </c>
+      <c r="I7">
+        <v>0.02647478672532295</v>
+      </c>
+      <c r="J7">
+        <v>0.01780700335556722</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.894743333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.684229999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.08691403710794816</v>
+      </c>
+      <c r="P7">
+        <v>0.0914926779403015</v>
+      </c>
+      <c r="Q7">
+        <v>0.3636231838166666</v>
+      </c>
+      <c r="R7">
+        <v>2.1817391029</v>
+      </c>
+      <c r="S7">
+        <v>0.002301030595869733</v>
+      </c>
+      <c r="T7">
+        <v>0.00162921042309278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4.619088000000001</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>13.857264</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.666218666666667</v>
-      </c>
-      <c r="N7">
-        <v>13.998656</v>
-      </c>
-      <c r="O7">
-        <v>0.2183307357409577</v>
-      </c>
-      <c r="P7">
-        <v>0.2349682939430755</v>
-      </c>
-      <c r="Q7">
-        <v>21.553674648576</v>
-      </c>
-      <c r="R7">
-        <v>193.983071837184</v>
-      </c>
-      <c r="S7">
-        <v>0.2183307357409577</v>
-      </c>
-      <c r="T7">
-        <v>0.2349682939430755</v>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>2.8377025</v>
+      </c>
+      <c r="N8">
+        <v>5.675405</v>
+      </c>
+      <c r="O8">
+        <v>0.08520139853031897</v>
+      </c>
+      <c r="P8">
+        <v>0.05979321158534227</v>
+      </c>
+      <c r="Q8">
+        <v>13.10759756532</v>
+      </c>
+      <c r="R8">
+        <v>78.64558539191999</v>
+      </c>
+      <c r="S8">
+        <v>0.08294570967552953</v>
+      </c>
+      <c r="T8">
+        <v>0.05872847366600194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.061974333333333</v>
+      </c>
+      <c r="N9">
+        <v>15.185923</v>
+      </c>
+      <c r="O9">
+        <v>0.1519846751111432</v>
+      </c>
+      <c r="P9">
+        <v>0.1599912441592654</v>
+      </c>
+      <c r="Q9">
+        <v>23.381704899408</v>
+      </c>
+      <c r="R9">
+        <v>210.435344094672</v>
+      </c>
+      <c r="S9">
+        <v>0.1479609132520582</v>
+      </c>
+      <c r="T9">
+        <v>0.15714227953766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.372280666666666</v>
+      </c>
+      <c r="N10">
+        <v>13.116842</v>
+      </c>
+      <c r="O10">
+        <v>0.1312767732230829</v>
+      </c>
+      <c r="P10">
+        <v>0.1381924477702479</v>
+      </c>
+      <c r="Q10">
+        <v>20.195949160032</v>
+      </c>
+      <c r="R10">
+        <v>181.763542440288</v>
+      </c>
+      <c r="S10">
+        <v>0.1278012486500132</v>
+      </c>
+      <c r="T10">
+        <v>0.1357316543890891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.1625465</v>
+      </c>
+      <c r="N11">
+        <v>4.325093</v>
+      </c>
+      <c r="O11">
+        <v>0.06492998691259792</v>
+      </c>
+      <c r="P11">
+        <v>0.04556700374251401</v>
+      </c>
+      <c r="Q11">
+        <v>9.988992587592001</v>
+      </c>
+      <c r="R11">
+        <v>59.933955525552</v>
+      </c>
+      <c r="S11">
+        <v>0.06321097935700888</v>
+      </c>
+      <c r="T11">
+        <v>0.04475559195396792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.97657333333333</v>
+      </c>
+      <c r="N12">
+        <v>47.92972</v>
+      </c>
+      <c r="O12">
+        <v>0.479693129114909</v>
+      </c>
+      <c r="P12">
+        <v>0.5049634148023289</v>
+      </c>
+      <c r="Q12">
+        <v>73.79719816512001</v>
+      </c>
+      <c r="R12">
+        <v>664.1747834860801</v>
+      </c>
+      <c r="S12">
+        <v>0.466993355827989</v>
+      </c>
+      <c r="T12">
+        <v>0.4959715295805052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.894743333333333</v>
+      </c>
+      <c r="N13">
+        <v>8.684229999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.08691403710794816</v>
+      </c>
+      <c r="P13">
+        <v>0.0914926779403015</v>
+      </c>
+      <c r="Q13">
+        <v>13.37107419408</v>
+      </c>
+      <c r="R13">
+        <v>120.33966774672</v>
+      </c>
+      <c r="S13">
+        <v>0.08461300651207844</v>
+      </c>
+      <c r="T13">
+        <v>0.08986346751720872</v>
       </c>
     </row>
   </sheetData>
